--- a/pattern_leetcode.xlsx
+++ b/pattern_leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Leetcode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE3835-4C97-45EA-9332-3D163083CCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F1BA32-6527-40AE-95B9-BF61B3BC091E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Pattern</t>
   </si>
@@ -826,10 +826,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -848,15 +855,20 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -864,35 +876,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Done" xfId="2" xr:uid="{1C57DC0E-7202-4432-86A6-530504D285A5}"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1205,32 +1279,32 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.85546875" customWidth="1"/>
     <col min="2" max="2" width="56.5703125" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1241,185 +1315,213 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="30">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="30">
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="30">
       <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pattern_leetcode.xlsx
+++ b/pattern_leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Leetcode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D0F4B1-A9C0-46D5-A8DA-F8A19AE41F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6FB6C7-D9D9-485F-A04A-4F56156752B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" activeTab="3" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
   </bookViews>

--- a/pattern_leetcode.xlsx
+++ b/pattern_leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Leetcode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6FB6C7-D9D9-485F-A04A-4F56156752B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ABFAB0-EC15-41E6-99D0-EF2AE344DC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" activeTab="3" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
   </bookViews>
   <sheets>
     <sheet name="Backtracking" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="203">
   <si>
     <t>Pattern</t>
   </si>
@@ -1016,12 +1016,18 @@
   </si>
   <si>
     <t>Top K Frequent Elements (#347)</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-14009]dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1093,7 +1099,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1132,6 +1138,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Done" xfId="2" xr:uid="{1C57DC0E-7202-4432-86A6-530504D285A5}"/>
@@ -1549,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3B06E5-16C9-406A-B6CF-E2C5545C4772}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1561,23 +1576,27 @@
     <col min="2" max="2" width="56.5703125" customWidth="1"/>
     <col min="3" max="3" width="46.85546875" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+      <c r="E1" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1609,11 @@
       <c r="D2" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="15">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1604,8 +1626,11 @@
       <c r="D3" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30">
+      <c r="E3" s="15">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1615,9 +1640,14 @@
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="30">
+      <c r="D4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="15">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1627,9 +1657,14 @@
       <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="30">
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="15">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1639,9 +1674,14 @@
       <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="30">
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="15">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1654,8 +1694,11 @@
       <c r="D7" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30">
+      <c r="E7" s="15">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1666,8 +1709,9 @@
         <v>23</v>
       </c>
       <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="30">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1678,8 +1722,9 @@
         <v>26</v>
       </c>
       <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="30">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1690,8 +1735,9 @@
         <v>29</v>
       </c>
       <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="30">
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -1704,8 +1750,11 @@
       <c r="D11" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="30">
+      <c r="E11" s="15">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1716,8 +1765,9 @@
         <v>35</v>
       </c>
       <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1728,8 +1778,9 @@
         <v>38</v>
       </c>
       <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="30">
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -1740,9 +1791,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="9"/>
+      <c r="E14" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D14">
+  <conditionalFormatting sqref="A1:D14 E1">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -1828,7 +1880,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E4">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1945,7 +1997,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="45">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
@@ -2077,7 +2129,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2089,7 +2141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14909923-4C92-4A06-BF1F-5F4B97FEAA7B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2166,7 +2218,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2223,7 +2275,7 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="45">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -2315,7 +2367,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E8">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2372,7 +2424,7 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>107</v>
       </c>
@@ -2402,7 +2454,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="45">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="5" t="s">
         <v>115</v>
       </c>
@@ -2479,7 +2531,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E9">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2551,7 +2603,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E3">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2640,7 +2692,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E4">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2682,7 +2734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="5" t="s">
         <v>154</v>
       </c>
@@ -2697,7 +2749,7 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="60">
+    <row r="3" spans="1:5" ht="45">
       <c r="A3" s="5" t="s">
         <v>158</v>
       </c>
@@ -2714,7 +2766,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E3">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pattern_leetcode.xlsx
+++ b/pattern_leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Leetcode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ABFAB0-EC15-41E6-99D0-EF2AE344DC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB83C7-5712-40DB-9624-A1C1B043C7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="203">
   <si>
     <t>Pattern</t>
   </si>
@@ -1567,7 +1567,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1708,8 +1708,12 @@
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="15">
+        <v>45654</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="5" t="s">

--- a/pattern_leetcode.xlsx
+++ b/pattern_leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Leetcode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB83C7-5712-40DB-9624-A1C1B043C7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1E1E64-B1E4-417C-AF35-3083065856DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="203">
   <si>
     <t>Pattern</t>
   </si>
@@ -1026,7 +1026,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-14009]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1138,13 +1138,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,7 +1567,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1725,8 +1725,12 @@
       <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="15">
+        <v>45655</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="5" t="s">
@@ -1738,8 +1742,12 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="15">
+        <v>45655</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="30">
       <c r="A11" s="5" t="s">
@@ -1798,7 +1806,7 @@
       <c r="E14" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D14 E1">
+  <conditionalFormatting sqref="E1 A1:D14">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -1896,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B3ED86-AF96-4E07-A077-3E1EFBACAA2C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2146,7 +2154,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/pattern_leetcode.xlsx
+++ b/pattern_leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Leetcode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1E1E64-B1E4-417C-AF35-3083065856DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139A7D7B-35F7-44D1-B4C2-C33FD51F128E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="200">
   <si>
     <t>Pattern</t>
   </si>
@@ -317,15 +317,6 @@
   </si>
   <si>
     <t>Restore IP Addresses (#93)</t>
-  </si>
-  <si>
-    <t>Binary Watch</t>
-  </si>
-  <si>
-    <t>Turn LEDs on and off to represent valid times in binary.</t>
-  </si>
-  <si>
-    <t>Binary Watch (#401)</t>
   </si>
   <si>
     <t>Split Array Into Fibonacci</t>
@@ -1564,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3B06E5-16C9-406A-B6CF-E2C5545C4772}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1590,10 +1581,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
@@ -1607,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="15">
         <v>45653</v>
@@ -1624,7 +1615,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E3" s="15">
         <v>45651</v>
@@ -1641,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="15">
         <v>45654</v>
@@ -1658,7 +1649,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="15">
         <v>45654</v>
@@ -1675,7 +1666,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="15">
         <v>45654</v>
@@ -1692,7 +1683,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" s="15">
         <v>45653</v>
@@ -1709,7 +1700,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="15">
         <v>45654</v>
@@ -1726,7 +1717,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" s="15">
         <v>45655</v>
@@ -1743,7 +1734,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" s="15">
         <v>45655</v>
@@ -1760,7 +1751,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="15">
         <v>45650</v>
@@ -1776,10 +1767,14 @@
       <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="15">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1792,21 +1787,8 @@
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="15"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E1 A1:D14">
+  <conditionalFormatting sqref="E1 A1:D13">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -1839,55 +1821,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45">
       <c r="A3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1925,117 +1907,117 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45">
       <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="45">
       <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="45">
       <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="45">
       <c r="A8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="E8" s="13"/>
     </row>
@@ -2074,69 +2056,69 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60">
       <c r="A2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2174,57 +2156,57 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60">
       <c r="A2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="45">
       <c r="A3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="E4" s="13"/>
     </row>
@@ -2263,117 +2245,117 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45">
       <c r="A2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="E8" s="13"/>
     </row>
@@ -2412,132 +2394,132 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="E9" s="13"/>
     </row>
@@ -2576,41 +2558,41 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60">
       <c r="A2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
       <c r="A3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2648,57 +2630,57 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="E4" s="13"/>
     </row>
@@ -2737,42 +2719,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="45">
       <c r="A3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="E3" s="13"/>
     </row>

--- a/pattern_leetcode.xlsx
+++ b/pattern_leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Leetcode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139A7D7B-35F7-44D1-B4C2-C33FD51F128E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFBE614-6B9E-497F-97CA-9DAECD8AC39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" activeTab="5" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
   </bookViews>
   <sheets>
     <sheet name="Backtracking" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="200">
   <si>
     <t>Pattern</t>
   </si>
@@ -1090,7 +1090,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1136,6 +1136,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1557,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3B06E5-16C9-406A-B6CF-E2C5545C4772}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1884,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B3ED86-AF96-4E07-A077-3E1EFBACAA2C}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1896,10 +1902,11 @@
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
     <col min="3" max="3" width="58.7109375" customWidth="1"/>
     <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1915,8 +1922,11 @@
       <c r="E1" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45">
+      <c r="F1" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1929,9 +1939,10 @@
       <c r="D2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="45">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="45">
       <c r="A3" s="5" t="s">
         <v>47</v>
       </c>
@@ -1944,9 +1955,14 @@
       <c r="D3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="30">
+      <c r="E3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="18">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -1959,9 +1975,10 @@
       <c r="D4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="30">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -1974,9 +1991,10 @@
       <c r="D5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="45">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -1989,9 +2007,10 @@
       <c r="D6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="30">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
@@ -2004,9 +2023,10 @@
       <c r="D7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="45">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
@@ -2019,10 +2039,11 @@
       <c r="D8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E8">
+  <conditionalFormatting sqref="A1:E8 F1">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -2373,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11352F6B-3C8C-4AA2-AF07-A2D69A2083B8}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2610,7 +2631,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/pattern_leetcode.xlsx
+++ b/pattern_leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Leetcode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFBE614-6B9E-497F-97CA-9DAECD8AC39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067C2819-49C4-4832-A9C3-78D0FB683785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" activeTab="5" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
   </bookViews>
   <sheets>
     <sheet name="Backtracking" sheetId="1" r:id="rId1"/>
@@ -1090,7 +1090,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1137,9 +1137,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1563,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3B06E5-16C9-406A-B6CF-E2C5545C4772}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1893,7 +1890,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1922,7 +1919,7 @@
       <c r="E1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="12" t="s">
         <v>199</v>
       </c>
     </row>
@@ -1958,7 +1955,7 @@
       <c r="E3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>45655</v>
       </c>
     </row>
@@ -2043,7 +2040,7 @@
       <c r="F8" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E8 F1">
+  <conditionalFormatting sqref="F1 A1:E8">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -2057,7 +2054,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2157,7 +2154,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2394,7 +2391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11352F6B-3C8C-4AA2-AF07-A2D69A2083B8}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/pattern_leetcode.xlsx
+++ b/pattern_leetcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Leetcode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067C2819-49C4-4832-A9C3-78D0FB683785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772341FF-C86A-45B4-93C7-A7E38804FEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="741" activeTab="1" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
   </bookViews>
   <sheets>
     <sheet name="Backtracking" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="252">
   <si>
     <t>Pattern</t>
   </si>
@@ -808,30 +808,6 @@
     <t>Flood Fill (#733), Number of Islands (#200)</t>
   </si>
   <si>
-    <t>Fixed-Size Window</t>
-  </si>
-  <si>
-    <t>Use two pointers to maintain a window of fixed size and slide it across the array.</t>
-  </si>
-  <si>
-    <t>Problems involving fixed-length subarrays.</t>
-  </si>
-  <si>
-    <t>Maximum Average Subarray (#643)</t>
-  </si>
-  <si>
-    <t>Variable-Size Window</t>
-  </si>
-  <si>
-    <t>Use two pointers to dynamically expand and contract the window based on constraints.</t>
-  </si>
-  <si>
-    <t>Problems with conditions like "longest" or "smallest" subarray.</t>
-  </si>
-  <si>
-    <t>Longest Substring Without Repeating Characters (#3), Minimum Window Substring (#76)</t>
-  </si>
-  <si>
     <t>Activity Selection</t>
   </si>
   <si>
@@ -973,43 +949,511 @@
     <t>Implement strStr() (#28)</t>
   </si>
   <si>
-    <t>Kth Largest/Smallest</t>
-  </si>
-  <si>
-    <t>Use a min-heap or max-heap to find the Kth largest or smallest element efficiently.</t>
-  </si>
-  <si>
-    <t>Median, top-K elements.</t>
-  </si>
-  <si>
-    <t>Kth Largest Element in an Array (#215)</t>
-  </si>
-  <si>
-    <t>Merge Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Use a min-heap to merge sorted arrays or lists efficiently.</t>
-  </si>
-  <si>
-    <t>Merging intervals, combining data streams.</t>
-  </si>
-  <si>
-    <t>Merge k Sorted Lists (#23)</t>
-  </si>
-  <si>
-    <t>Top-K Frequent Elements</t>
-  </si>
-  <si>
-    <t>Use a priority queue to count and sort frequencies.</t>
-  </si>
-  <si>
-    <t>Frequency analysis in datasets.</t>
-  </si>
-  <si>
-    <t>Top K Frequent Elements (#347)</t>
-  </si>
-  <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Fixed-size Sliding Window</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maintain a window of size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, adding the next element and removing the oldest element when the window exceeds size.</t>
+    </r>
+  </si>
+  <si>
+    <t>Finding maximum/minimum sums in subarrays of fixed size, averages, or fixed-length computations.</t>
+  </si>
+  <si>
+    <t>643. Maximum Average Subarray I</t>
+  </si>
+  <si>
+    <r>
+      <t>Dynamic-size Sliding Window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Expand/Shrink)</t>
+    </r>
+  </si>
+  <si>
+    <t>Use two pointers. Expand the window until a condition is met, then shrink it from the left to restore the condition.</t>
+  </si>
+  <si>
+    <t>Problems with variable-length subarrays or substrings, e.g., finding smallest subarray with a sum.</t>
+  </si>
+  <si>
+    <t>209. Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Use a set/map to track characters in the current substring. Expand the window and shrink when duplicates are found.</t>
+  </si>
+  <si>
+    <t>Finding substrings with unique characters or no repeats.</t>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use a frequency map to track character counts. Adjust window size to allow up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replacements of characters.</t>
+    </r>
+  </si>
+  <si>
+    <t>Problems where you optimize for longest substring with specific replacements.</t>
+  </si>
+  <si>
+    <t>424. Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>Use frequency maps for target and sliding window. Compare window frequency with target frequency.</t>
+  </si>
+  <si>
+    <t>Check if one string’s permutation is a substring of another.</t>
+  </si>
+  <si>
+    <t>567. Permutation in String</t>
+  </si>
+  <si>
+    <t>Top K Elements</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use a min-heap of size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to store the largest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> elements. Remove the smallest element if the heap size exceeds </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finding the largest or smallest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> elements in an array.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kth Largest/Smallest Element</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use a min-heap for the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Kth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> largest or a max-heap for the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Kth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> smallest.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quickly retrieve the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Kth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> largest/smallest value in an array.</t>
+    </r>
+  </si>
+  <si>
+    <t>215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Merge K Sorted Lists</t>
+  </si>
+  <si>
+    <t>Use a min-heap to repeatedly extract the smallest element from all lists and add it to the result.</t>
+  </si>
+  <si>
+    <t>Efficiently merge multiple sorted arrays or linked lists.</t>
+  </si>
+  <si>
+    <t>Median in Data Stream</t>
+  </si>
+  <si>
+    <t>Use two heaps: a max-heap for the left half and a min-heap for the right half. Balance the heaps after every insertion.</t>
+  </si>
+  <si>
+    <t>Continuously find the median of a growing data stream.</t>
+  </si>
+  <si>
+    <t>295. Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Sort an Array with a Heap</t>
+  </si>
+  <si>
+    <t>Build a max-heap and repeatedly extract the largest element, reducing heap size each time.</t>
+  </si>
+  <si>
+    <t>Implement heap sort to sort an array in O(nlog⁡n)O(n \log n)O(nlogn).</t>
+  </si>
+  <si>
+    <t>912. Sort an Array</t>
+  </si>
+  <si>
+    <t>Task Scheduling with Cooldown</t>
+  </si>
+  <si>
+    <t>Use a max-heap to track the frequency of tasks and schedule them based on their cooldown times.</t>
+  </si>
+  <si>
+    <t>Solve scheduling problems with constraints like cooldown times.</t>
+  </si>
+  <si>
+    <t>621. Task Scheduler</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use a max-heap to track the largest element in the current window of size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Remove elements that fall outside the window.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find the maximum in every subarray of size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>239. Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Top K Frequent Words</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use a min-heap with custom sorting to keep track of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> most frequent words.</t>
+    </r>
+  </si>
+  <si>
+    <t>Find the most frequent words with ties broken lexicographically.</t>
+  </si>
+  <si>
+    <t>692. Top K Frequent Words</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Connect Ropes</t>
+  </si>
+  <si>
+    <t>Use a min-heap to repeatedly combine the smallest ropes and calculate the total cost.</t>
+  </si>
+  <si>
+    <t>Minimize the cost of combining ropes or performing merges.</t>
+  </si>
+  <si>
+    <t>1167. Minimum Cost to Connect Ropes</t>
+  </si>
+  <si>
+    <t>Reorganize String</t>
+  </si>
+  <si>
+    <t>Use a max-heap to arrange characters such that no two adjacent characters are the same.</t>
+  </si>
+  <si>
+    <t>Solve problems related to character arrangement and distribution.</t>
+  </si>
+  <si>
+    <t>767. Reorganize String</t>
+  </si>
+  <si>
+    <t>Find Closest Points to Origin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use a max-heap of size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to store the closest points to the origin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find the closest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> points in a 2D space.</t>
+    </r>
+  </si>
+  <si>
+    <t>973. K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>Frequency Sort</t>
+  </si>
+  <si>
+    <t>Use a max-heap to sort elements based on their frequencies.</t>
+  </si>
+  <si>
+    <t>Sort an array or string by the frequency of its elements.</t>
+  </si>
+  <si>
+    <t>451. Sort Characters By Frequency</t>
+  </si>
+  <si>
+    <t>Find the Smallest Range Covering K Lists</t>
+  </si>
+  <si>
+    <t>Use a min-heap to track the smallest range that includes at least one number from each list.</t>
+  </si>
+  <si>
+    <t>Find a range that covers all lists efficiently.</t>
+  </si>
+  <si>
+    <t>632. Smallest Range Covering Elements from K Lists</t>
+  </si>
+  <si>
+    <t>347. Top K Frequent Elements 
+703. Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>23. Merge k Sorted Lists
+373. Find K Pairs with Smallest Sums</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1534,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1140,6 +1584,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1560,17 +2013,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3B06E5-16C9-406A-B6CF-E2C5545C4772}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="46.81640625" customWidth="1"/>
+    <col min="2" max="2" width="56.54296875" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1587,10 +2040,10 @@
         <v>39</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1624,7 +2077,7 @@
         <v>45651</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="29">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1641,7 +2094,7 @@
         <v>45654</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="29">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1658,7 +2111,7 @@
         <v>45654</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="29">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1675,7 +2128,7 @@
         <v>45654</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="29">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1692,7 +2145,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="29">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1709,7 +2162,7 @@
         <v>45654</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
+    <row r="9" spans="1:5" ht="29">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1726,7 +2179,7 @@
         <v>45655</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" spans="1:5" ht="29">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1743,7 +2196,7 @@
         <v>45655</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5" ht="29">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -1760,7 +2213,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1777,7 +2230,7 @@
         <v>45655</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:5" ht="29">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1804,16 +2257,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBF18F7-71C6-43AC-A093-88CEC0278ACA}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1833,46 +2286,49 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="29">
       <c r="A2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5">
+      <c r="A3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29">
+      <c r="A4" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45">
-      <c r="A3" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1887,20 +2343,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B3ED86-AF96-4E07-A077-3E1EFBACAA2C}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.7265625" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" customWidth="1"/>
+    <col min="3" max="3" width="58.7265625" customWidth="1"/>
+    <col min="4" max="4" width="66.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1920,10 +2376,10 @@
         <v>39</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1939,7 +2395,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="45">
+    <row r="3" spans="1:6" ht="29">
       <c r="A3" s="5" t="s">
         <v>47</v>
       </c>
@@ -1959,7 +2415,7 @@
         <v>45655</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="29">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -1975,7 +2431,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="29">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -1991,7 +2447,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="29">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -2007,7 +2463,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="29">
       <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
@@ -2020,10 +2476,14 @@
       <c r="D7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="45">
+      <c r="E7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="17">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
@@ -2038,6 +2498,9 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1 A1:E8">
@@ -2053,17 +2516,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E04D411-A0BB-4236-9C25-1AE5074014FE}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" customWidth="1"/>
+    <col min="4" max="4" width="46.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2083,60 +2546,63 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60">
+    <row r="2" spans="1:5" ht="43.5">
       <c r="A2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29">
+      <c r="A3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29">
+      <c r="A4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29">
+      <c r="A5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2151,19 +2617,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14909923-4C92-4A06-BF1F-5F4B97FEAA7B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="43.08984375" customWidth="1"/>
+    <col min="3" max="3" width="35.08984375" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2179,57 +2645,209 @@
       <c r="D1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60">
+    <row r="2" spans="1:5" ht="43.5">
       <c r="A2" s="5" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="45">
+        <v>250</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29">
       <c r="A3" s="5" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="45">
+        <v>206</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29">
       <c r="A4" s="5" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>251</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.5">
+      <c r="A5" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29">
+      <c r="A6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5">
+      <c r="A7" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.5">
+      <c r="A8" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29">
+      <c r="A9" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29">
+      <c r="A10" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29">
+      <c r="A11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29">
+      <c r="A12" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29">
+      <c r="A13" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29">
+      <c r="A14" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>249</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E4">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -2242,17 +2860,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD3747A-C597-4076-BAD3-24EACDB40560}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
+    <col min="3" max="3" width="42.7265625" customWidth="1"/>
+    <col min="4" max="4" width="39.26953125" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2272,7 +2890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45">
+    <row r="2" spans="1:5" ht="29">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -2287,7 +2905,7 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5" ht="29">
       <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
@@ -2302,7 +2920,7 @@
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="29">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -2317,7 +2935,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="29">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
@@ -2332,7 +2950,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="29">
       <c r="A6" s="5" t="s">
         <v>88</v>
       </c>
@@ -2347,7 +2965,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="29">
       <c r="A7" s="5" t="s">
         <v>92</v>
       </c>
@@ -2362,7 +2980,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="29">
       <c r="A8" s="5" t="s">
         <v>96</v>
       </c>
@@ -2392,16 +3010,16 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="60.1796875" customWidth="1"/>
+    <col min="3" max="3" width="55.1796875" customWidth="1"/>
+    <col min="4" max="4" width="52.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2421,7 +3039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="29">
       <c r="A2" s="5" t="s">
         <v>100</v>
       </c>
@@ -2451,7 +3069,7 @@
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="29">
       <c r="A4" s="5" t="s">
         <v>108</v>
       </c>
@@ -2466,7 +3084,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="29">
       <c r="A5" s="5" t="s">
         <v>112</v>
       </c>
@@ -2481,7 +3099,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="29">
       <c r="A6" s="5" t="s">
         <v>116</v>
       </c>
@@ -2496,7 +3114,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="29">
       <c r="A7" s="5" t="s">
         <v>120</v>
       </c>
@@ -2511,7 +3129,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="29">
       <c r="A8" s="5" t="s">
         <v>124</v>
       </c>
@@ -2553,68 +3171,122 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346F7464-9704-4494-A8D3-56DF3E3854F1}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="18" customWidth="1"/>
+    <col min="10" max="13" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60">
-      <c r="A2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60">
-      <c r="A3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>139</v>
-      </c>
+    <row r="2" spans="1:5" ht="43.5">
+      <c r="A2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5">
+      <c r="A3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5">
+      <c r="A4" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.5">
+      <c r="A5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="29">
+      <c r="A6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E3">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -2631,11 +3303,11 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
@@ -2657,48 +3329,48 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="29">
       <c r="A2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="29">
+      <c r="A3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="29">
+      <c r="A4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="E4" s="13"/>
     </row>
@@ -2717,16 +3389,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="42.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2746,35 +3418,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="29">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="45">
+        <v>146</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5">
       <c r="A3" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="13"/>
+        <v>150</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E3">

--- a/pattern_leetcode.xlsx
+++ b/pattern_leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Leetcode-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772341FF-C86A-45B4-93C7-A7E38804FEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6D8790-193D-45A7-97C0-0904734A437F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="741" activeTab="1" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="741" activeTab="3" xr2:uid="{DE4D0EC4-9EBA-4342-877D-CEAD3830BD96}"/>
   </bookViews>
   <sheets>
     <sheet name="Backtracking" sheetId="1" r:id="rId1"/>
@@ -2013,7 +2013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3B06E5-16C9-406A-B6CF-E2C5545C4772}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2257,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBF18F7-71C6-43AC-A093-88CEC0278ACA}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2345,7 +2345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B3ED86-AF96-4E07-A077-3E1EFBACAA2C}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2516,7 +2516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E04D411-A0BB-4236-9C25-1AE5074014FE}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2619,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14909923-4C92-4A06-BF1F-5F4B97FEAA7B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2860,7 +2860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD3747A-C597-4076-BAD3-24EACDB40560}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
